--- a/data/industry/CFM/eMCP.xlsx
+++ b/data/industry/CFM/eMCP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\industry\CFM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DFED91-E107-41B0-8E98-506F6DEF0EE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33386BED-CBED-4733-AAC3-93A30D8997F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="9">
   <si>
     <t>Base Date</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -60,15 +60,19 @@
     <t>UTC+8</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>UTC+8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="177" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -125,38 +129,38 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표" xfId="1" builtinId="3"/>
@@ -438,21 +442,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="11.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="12.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="10"/>
+    <col min="7" max="7" width="11.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -468,612 +472,635 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45860</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>45860</v>
       </c>
-      <c r="C2" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="C2" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10">
         <v>11.5</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="10">
         <v>14.2</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="10">
         <v>12.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45867</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>45867</v>
       </c>
-      <c r="C3" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="C3" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10">
         <v>13.5</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="10">
         <v>16.2</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="10">
         <v>14.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45874</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>45874</v>
       </c>
-      <c r="C4" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="C4" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10">
         <v>13.5</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="10">
         <v>16.2</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="10">
         <v>14.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>45881</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>45881</v>
       </c>
-      <c r="C5" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="C5" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10">
         <v>13.5</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="10">
         <v>16.2</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="10">
         <v>14.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>45888</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>45888</v>
       </c>
-      <c r="C6" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="C6" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="10">
         <v>13.5</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="10">
         <v>16.2</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="10">
         <v>14.5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45895</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>45895</v>
       </c>
-      <c r="C7" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="C7" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="10">
         <v>13.5</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="10">
         <v>16.2</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="10">
         <v>14.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>45902</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>45902</v>
       </c>
-      <c r="C8" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="C8" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10">
         <v>13.5</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="10">
         <v>16.2</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="10">
         <v>14.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>45909</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>45909</v>
       </c>
-      <c r="C9" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="C9" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="10">
         <v>13.5</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="10">
         <v>16.2</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="10">
         <v>14.5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>45916</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>45916</v>
       </c>
-      <c r="C10" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="C10" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="10">
         <v>13.5</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="10">
         <v>16.2</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="10">
         <v>14.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>45923</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>45923</v>
       </c>
-      <c r="C11" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="C11" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10">
         <v>14.2</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="10">
         <v>16.899999999999999</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="10">
         <v>15.2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>45930</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>45930</v>
       </c>
-      <c r="C12" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="C12" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10">
         <v>14.2</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="10">
         <v>16.899999999999999</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="10">
         <v>15.2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>45944</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>45944</v>
       </c>
-      <c r="C13" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="C13" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="10">
         <v>18</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="10">
         <v>20.7</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="10">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>45951</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>45951</v>
       </c>
-      <c r="C14" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="C14" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="10">
         <v>18</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="10">
         <v>20.7</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="10">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>45958</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>45958</v>
       </c>
-      <c r="C15" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="C15" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="10">
         <v>18</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="10">
         <v>20.7</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="10">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>45965</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>45965</v>
       </c>
-      <c r="C16" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="C16" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="10">
         <v>23</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="10">
         <v>25.7</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="10">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>45972</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>45972</v>
       </c>
-      <c r="C17" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="C17" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="10">
         <v>26</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="10">
         <v>28.7</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="10">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>45979</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>45979</v>
       </c>
-      <c r="C18" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="C18" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="10">
         <v>31</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="10">
         <v>33.700000000000003</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>45986</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>45986</v>
       </c>
-      <c r="C19" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="C19" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="10">
         <v>37.200000000000003</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="10">
         <v>39.9</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="10">
         <v>38.200000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>45993</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>45993</v>
       </c>
-      <c r="C20" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="C20" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="10">
         <v>43</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="10">
         <v>45.7</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="10">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>46000</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>46000</v>
       </c>
-      <c r="C21" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="C21" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="10">
         <v>48</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="10">
         <v>50.7</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="10">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>46007</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>46007</v>
       </c>
-      <c r="C22" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="C22" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="10">
         <v>48</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="10">
         <v>50.7</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="10">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>46014</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>46014</v>
       </c>
-      <c r="C23" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="9">
+      <c r="C23" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="10">
         <v>49</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="10">
         <v>51.7</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="10">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>46021</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>46021</v>
       </c>
-      <c r="C24" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="C24" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="10">
         <v>49</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="10">
         <v>51.7</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="10">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>46028</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>46028</v>
       </c>
-      <c r="C25" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="C25" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="10">
         <v>49</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="10">
         <v>51.7</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="10">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+      <c r="A26" s="8">
         <v>46035</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="8">
         <v>46035</v>
       </c>
-      <c r="C26" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="C26" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="10">
         <v>54</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="10">
         <v>56.7</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="10">
         <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+      <c r="A27" s="8">
         <v>46042</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="8">
         <v>46042</v>
       </c>
-      <c r="C27" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="C27" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="10">
         <v>56</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="10">
         <v>58.7</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="10">
         <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="5">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="10">
+        <v>60</v>
+      </c>
+      <c r="F28" s="10">
+        <v>62.7</v>
+      </c>
+      <c r="G28" s="10">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1084,21 +1111,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6D90D4-0805-4F1F-B873-D654865F68EF}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="K36" sqref="K36:K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="11.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="12.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="10"/>
+    <col min="7" max="7" width="11.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1114,612 +1141,635 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45860</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>45860</v>
       </c>
-      <c r="C2" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="C2" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10">
         <v>14.5</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="10">
         <v>17.5</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45867</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>45867</v>
       </c>
-      <c r="C3" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="C3" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10">
         <v>17</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="10">
         <v>20</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="10">
         <v>18.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45874</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>45874</v>
       </c>
-      <c r="C4" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="C4" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10">
         <v>17</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="10">
         <v>20</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="10">
         <v>18.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>45881</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>45881</v>
       </c>
-      <c r="C5" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="C5" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10">
         <v>17</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="10">
         <v>20</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="10">
         <v>18.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>45888</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>45888</v>
       </c>
-      <c r="C6" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="C6" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="10">
         <v>17</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="10">
         <v>20</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="10">
         <v>18.5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45895</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>45895</v>
       </c>
-      <c r="C7" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="C7" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="10">
         <v>17</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="10">
         <v>20</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="10">
         <v>18.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>45902</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>45902</v>
       </c>
-      <c r="C8" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="C8" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10">
         <v>17</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="10">
         <v>20</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="10">
         <v>18.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>45909</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>45909</v>
       </c>
-      <c r="C9" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="C9" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="10">
         <v>17</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="10">
         <v>20</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="10">
         <v>18.5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>45916</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>45916</v>
       </c>
-      <c r="C10" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="C10" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="10">
         <v>17</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="10">
         <v>20</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="10">
         <v>18.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>45923</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>45923</v>
       </c>
-      <c r="C11" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="C11" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10">
         <v>17.899999999999999</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="10">
         <v>20.9</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="10">
         <v>19.399999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>45930</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>45930</v>
       </c>
-      <c r="C12" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="C12" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10">
         <v>17.899999999999999</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="10">
         <v>20.9</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="10">
         <v>19.399999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>45944</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>45944</v>
       </c>
-      <c r="C13" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="C13" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="10">
         <v>21.5</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="10">
         <v>24.5</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="10">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>45951</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>45951</v>
       </c>
-      <c r="C14" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="C14" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="10">
         <v>21.5</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="10">
         <v>24.5</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="10">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>45958</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>45958</v>
       </c>
-      <c r="C15" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="C15" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="10">
         <v>21.5</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="10">
         <v>24.5</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="10">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>45965</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>45965</v>
       </c>
-      <c r="C16" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="C16" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="10">
         <v>26.5</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="10">
         <v>29.5</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>45972</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>45972</v>
       </c>
-      <c r="C17" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="C17" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="10">
         <v>30.5</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="10">
         <v>33.5</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>45979</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>45979</v>
       </c>
-      <c r="C18" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="C18" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="10">
         <v>36.5</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="10">
         <v>39.5</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="10">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>45986</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>45986</v>
       </c>
-      <c r="C19" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="C19" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="10">
         <v>44</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="10">
         <v>47</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="10">
         <v>45.5</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>45993</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>45993</v>
       </c>
-      <c r="C20" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="C20" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="10">
         <v>51.5</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="10">
         <v>54.5</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="10">
         <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>46000</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>46000</v>
       </c>
-      <c r="C21" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="C21" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="10">
         <v>56.5</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="10">
         <v>59.5</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="10">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>46007</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>46007</v>
       </c>
-      <c r="C22" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="C22" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="10">
         <v>56.5</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="10">
         <v>59.5</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="10">
         <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>46014</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>46014</v>
       </c>
-      <c r="C23" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="9">
+      <c r="C23" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="10">
         <v>58.5</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="10">
         <v>61.5</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="10">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>46021</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>46021</v>
       </c>
-      <c r="C24" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="C24" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="10">
         <v>58.5</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="10">
         <v>61.5</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="10">
         <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>46028</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>46028</v>
       </c>
-      <c r="C25" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="C25" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="10">
         <v>58.5</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="10">
         <v>61.5</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="10">
         <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+      <c r="A26" s="8">
         <v>46035</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="8">
         <v>46035</v>
       </c>
-      <c r="C26" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="C26" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="10">
         <v>63.5</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="10">
         <v>66.5</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="10">
         <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+      <c r="A27" s="8">
         <v>46042</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="8">
         <v>46042</v>
       </c>
-      <c r="C27" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="C27" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="10">
         <v>65.5</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="10">
         <v>68.5</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="10">
         <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="5">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="10">
+        <v>68.5</v>
+      </c>
+      <c r="F28" s="10">
+        <v>71.5</v>
+      </c>
+      <c r="G28" s="10">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1730,21 +1780,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F328918B-C38E-4C53-9F1E-0761925FE522}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="11.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="12.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="10"/>
+    <col min="6" max="6" width="10.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1760,612 +1811,635 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45860</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>45860</v>
       </c>
-      <c r="C2" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="C2" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10">
         <v>20.5</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="10">
         <v>23</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="10">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45867</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>45867</v>
       </c>
-      <c r="C3" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="C3" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10">
         <v>24</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="10">
         <v>26.5</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="10">
         <v>24.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45874</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>45874</v>
       </c>
-      <c r="C4" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="C4" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10">
         <v>24</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="10">
         <v>26.5</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="10">
         <v>24.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>45881</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>45881</v>
       </c>
-      <c r="C5" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="C5" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10">
         <v>24</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="10">
         <v>26.5</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="10">
         <v>24.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>45888</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>45888</v>
       </c>
-      <c r="C6" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="C6" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="10">
         <v>24</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="10">
         <v>26.5</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="10">
         <v>24.5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45895</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>45895</v>
       </c>
-      <c r="C7" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="C7" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="10">
         <v>24</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="10">
         <v>26.5</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="10">
         <v>24.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>45902</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>45902</v>
       </c>
-      <c r="C8" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="C8" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10">
         <v>24</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="10">
         <v>26.5</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="10">
         <v>24.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>45909</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>45909</v>
       </c>
-      <c r="C9" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="C9" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="10">
         <v>24</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="10">
         <v>26.5</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="10">
         <v>24.5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>45916</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>45916</v>
       </c>
-      <c r="C10" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="C10" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="10">
         <v>24</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="10">
         <v>26.5</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="10">
         <v>24.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>45923</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>45923</v>
       </c>
-      <c r="C11" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="C11" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10">
         <v>25.3</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="10">
         <v>27.8</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="10">
         <v>25.8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>45930</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>45930</v>
       </c>
-      <c r="C12" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="C12" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10">
         <v>25.3</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="10">
         <v>27.8</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="10">
         <v>25.8</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>45944</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>45944</v>
       </c>
-      <c r="C13" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="C13" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="10">
         <v>29.5</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="10">
         <v>32</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="10">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>45951</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>45951</v>
       </c>
-      <c r="C14" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="C14" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="10">
         <v>29.5</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="10">
         <v>32</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="10">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>45958</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>45958</v>
       </c>
-      <c r="C15" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="C15" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="10">
         <v>29.5</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="10">
         <v>32</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="10">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>45965</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>45965</v>
       </c>
-      <c r="C16" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="C16" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="10">
         <v>35.5</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="10">
         <v>38</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="10">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>45972</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>45972</v>
       </c>
-      <c r="C17" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="C17" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="10">
         <v>39.5</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="10">
         <v>42</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="10">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>45979</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>45979</v>
       </c>
-      <c r="C18" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="C18" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="10">
         <v>47.5</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="10">
         <v>50</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="10">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>45986</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>45986</v>
       </c>
-      <c r="C19" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="C19" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="10">
         <v>55.5</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="10">
         <v>58</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="10">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>45993</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>45993</v>
       </c>
-      <c r="C20" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="C20" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="10">
         <v>59.5</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="10">
         <v>62</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="10">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>46000</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>46000</v>
       </c>
-      <c r="C21" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="C21" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="10">
         <v>65.5</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="10">
         <v>68</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="10">
         <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>46007</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>46007</v>
       </c>
-      <c r="C22" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="C22" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="10">
         <v>65.5</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="10">
         <v>68</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="10">
         <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>46014</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>46014</v>
       </c>
-      <c r="C23" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="9">
+      <c r="C23" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="10">
         <v>67.5</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="10">
         <v>70</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="10">
         <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>46021</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>46021</v>
       </c>
-      <c r="C24" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="C24" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="10">
         <v>67.5</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="10">
         <v>70</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="10">
         <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>46028</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>46028</v>
       </c>
-      <c r="C25" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="C25" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="10">
         <v>67.5</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="10">
         <v>70</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="10">
         <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
+      <c r="A26" s="8">
         <v>46035</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="8">
         <v>46035</v>
       </c>
-      <c r="C26" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="C26" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="10">
         <v>80.5</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="10">
         <v>83</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="10">
         <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
+      <c r="A27" s="8">
         <v>46042</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="8">
         <v>46042</v>
       </c>
-      <c r="C27" s="7">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="C27" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="10">
         <v>82.5</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="10">
         <v>85</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="10">
         <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>46049</v>
+      </c>
+      <c r="B28" s="5">
+        <v>46049</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="10">
+        <v>85.5</v>
+      </c>
+      <c r="F28" s="10">
+        <v>88</v>
+      </c>
+      <c r="G28" s="10">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
